--- a/archives base de données PSFDF(1).xlsx
+++ b/archives base de données PSFDF(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92FBB53-8443-4314-B1F9-BDF8E185CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913B412-5F81-495E-B084-F26C940B8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2260,9 +2260,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy\ hh:mm"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2315,17 +2314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2339,6 +2332,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2559,13 +2557,13 @@
   </sheetPr>
   <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="N329" sqref="N329"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="11" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2576,7 +2574,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2608,7 +2606,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>45561.598611111112</v>
       </c>
       <c r="D2" s="1"/>
@@ -2616,7 +2614,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2630,10 +2628,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>45560.739583333336</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
       <c r="E3" s="1"/>
@@ -2642,7 +2640,7 @@
         <v>713</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2656,10 +2654,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>45556.729166666664</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>63</v>
       </c>
       <c r="E4" s="1"/>
@@ -2678,7 +2676,7 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>45556.995138888888</v>
       </c>
       <c r="D5" s="1"/>
@@ -2686,7 +2684,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2700,7 +2698,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>45555.583333333336</v>
       </c>
       <c r="D6" s="1"/>
@@ -2708,7 +2706,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2722,7 +2720,7 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>45551.824999999997</v>
       </c>
       <c r="D7" s="1"/>
@@ -2730,7 +2728,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2744,19 +2742,19 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>45551.808333333334</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2770,7 +2768,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>45551.751388888886</v>
       </c>
       <c r="D9" s="1"/>
@@ -2788,19 +2786,19 @@
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>45551.702777777777</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>7</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2814,17 +2812,17 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>45551.70416666667</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2838,12 +2836,12 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>45551.625</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2860,7 +2858,7 @@
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>45551.670138888891</v>
       </c>
       <c r="D13" s="1"/>
@@ -2878,10 +2876,10 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>45550.853472222225</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>60</v>
       </c>
       <c r="E14" s="1"/>
@@ -2890,7 +2888,7 @@
         <v>697</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -2904,7 +2902,7 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>45550.837500000001</v>
       </c>
       <c r="D15" s="1"/>
@@ -2914,7 +2912,7 @@
         <v>698</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2928,10 +2926,10 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>45550.935416666667</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>60</v>
       </c>
       <c r="E16" s="1"/>
@@ -2950,10 +2948,10 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>45550.772222222222</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>40</v>
       </c>
       <c r="E17" s="1"/>
@@ -2964,7 +2962,7 @@
       <c r="H17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -2978,7 +2976,7 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>45550.768750000003</v>
       </c>
       <c r="D18" s="1"/>
@@ -2996,13 +2994,13 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>45550.750694444447</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>25</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
@@ -3010,7 +3008,7 @@
         <v>700</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3024,23 +3022,23 @@
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>45550.749305555553</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>40</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>718</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -3054,23 +3052,23 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>45550.547222222223</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>150</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>720</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3084,7 +3082,7 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>45549.919444444444</v>
       </c>
       <c r="D22" s="1"/>
@@ -3092,7 +3090,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3106,7 +3104,7 @@
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="9">
         <v>45549.706250000003</v>
       </c>
       <c r="D23" s="1"/>
@@ -3124,19 +3122,19 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="9">
         <v>45549.803472222222</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>100</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>407</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3150,16 +3148,16 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>45549.683333333334</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>150</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3178,13 +3176,13 @@
       <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>45549.70208333333</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>70</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>5</v>
       </c>
       <c r="F26" s="1"/>
@@ -3202,7 +3200,7 @@
       <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>45549.677083333336</v>
       </c>
       <c r="D27" s="1"/>
@@ -3220,7 +3218,7 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>45549.65625</v>
       </c>
       <c r="D28" s="1"/>
@@ -3238,11 +3236,11 @@
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>45549.638194444444</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="1"/>
@@ -3250,7 +3248,7 @@
         <v>697</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3264,7 +3262,7 @@
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>45549.614583333336</v>
       </c>
       <c r="D30" s="1"/>
@@ -3274,7 +3272,7 @@
         <v>697</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3288,21 +3286,21 @@
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>45549.931250000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>702</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -3316,19 +3314,19 @@
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>45548.647916666669</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3342,23 +3340,23 @@
       <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>45547.791666666664</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>50</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>697</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3372,23 +3370,23 @@
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="9">
         <v>45547.625</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>900</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>16</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>727</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -3402,13 +3400,13 @@
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="9">
         <v>45547.536111111112</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>20</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
@@ -3416,7 +3414,7 @@
         <v>698</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3430,7 +3428,7 @@
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>45546.917361111111</v>
       </c>
       <c r="D36" s="1"/>
@@ -3448,7 +3446,7 @@
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>45546.633333333331</v>
       </c>
       <c r="D37" s="1"/>
@@ -3466,13 +3464,13 @@
       <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="9">
         <v>45546.657638888886</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>50</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38" s="1"/>
@@ -3488,17 +3486,17 @@
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="9">
         <v>45545.679861111108</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>10</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3512,16 +3510,16 @@
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="9">
         <v>45545.651388888888</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>400</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3530,7 +3528,7 @@
       <c r="H40" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3544,13 +3542,13 @@
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="9">
         <v>45545.21875</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>85</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="1"/>
@@ -3558,7 +3556,7 @@
         <v>697</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3572,10 +3570,10 @@
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>45544.981944444444</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>150</v>
       </c>
       <c r="E42" s="1"/>
@@ -3584,7 +3582,7 @@
         <v>704</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>109</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3598,7 +3596,7 @@
       <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="9">
         <v>45543.002083333333</v>
       </c>
       <c r="D43" s="1"/>
@@ -3616,19 +3614,19 @@
       <c r="B44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="9">
         <v>45541.549305555556</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>18</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>114</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3642,7 +3640,7 @@
       <c r="B45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="9">
         <v>45539.007638888892</v>
       </c>
       <c r="D45" s="1"/>
@@ -3650,7 +3648,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3664,10 +3662,10 @@
       <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="9">
         <v>45539.4375</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>18</v>
       </c>
       <c r="E46" s="1"/>
@@ -3676,7 +3674,7 @@
         <v>705</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3690,13 +3688,13 @@
       <c r="B47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>45538.662499999999</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>50</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
@@ -3706,7 +3704,7 @@
       <c r="H47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3720,7 +3718,7 @@
       <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="9">
         <v>45538.836111111108</v>
       </c>
       <c r="D48" s="1"/>
@@ -3730,7 +3728,7 @@
         <v>707</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -3744,13 +3742,13 @@
       <c r="B49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="9">
         <v>45538.581250000003</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>44</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>3</v>
       </c>
       <c r="F49" s="1"/>
@@ -3760,7 +3758,7 @@
       <c r="H49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3774,11 +3772,11 @@
       <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="9">
         <v>45538.663194444445</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>1</v>
       </c>
       <c r="F50" s="1"/>
@@ -3794,10 +3792,10 @@
       <c r="B51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="9">
         <v>45537.682638888888</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>18</v>
       </c>
       <c r="E51" s="1"/>
@@ -3806,7 +3804,7 @@
         <v>135</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>136</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -3820,13 +3818,13 @@
       <c r="B52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="9">
         <v>45537.097916666666</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>19</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>1</v>
       </c>
       <c r="F52" s="1"/>
@@ -3836,7 +3834,7 @@
       <c r="H52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -3850,10 +3848,10 @@
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="9">
         <v>45537.999305555553</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>22</v>
       </c>
       <c r="E53" s="1"/>
@@ -3872,13 +3870,13 @@
       <c r="B54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="9">
         <v>45537.765277777777</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>22</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>3</v>
       </c>
       <c r="F54" s="1"/>
@@ -3886,7 +3884,7 @@
         <v>710</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -3900,13 +3898,13 @@
       <c r="B55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="9">
         <v>45537.636805555558</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>50</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="1"/>
@@ -3916,7 +3914,7 @@
       <c r="H55" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>149</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -3930,13 +3928,13 @@
       <c r="B56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="9">
         <v>45537.666666666664</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>30</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>1</v>
       </c>
       <c r="F56" s="1"/>
@@ -3954,7 +3952,7 @@
       <c r="B57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="9">
         <v>45537.732638888891</v>
       </c>
       <c r="D57" s="1"/>
@@ -3962,7 +3960,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -3976,13 +3974,13 @@
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="9">
         <v>45537.739583333336</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>20</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>1</v>
       </c>
       <c r="F58" s="1"/>
@@ -3990,7 +3988,7 @@
         <v>712</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>157</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4004,13 +4002,13 @@
       <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="9">
         <v>45537.736111111109</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>42</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="1"/>
@@ -4018,7 +4016,7 @@
         <v>705</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>159</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4032,7 +4030,7 @@
       <c r="B60" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="9">
         <v>45537.583333333336</v>
       </c>
       <c r="D60" s="1"/>
@@ -4052,13 +4050,13 @@
       <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="9">
         <v>45537.518750000003</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>30</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>2</v>
       </c>
       <c r="F61" s="1"/>
@@ -4066,7 +4064,7 @@
         <v>164</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4080,17 +4078,17 @@
       <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="9">
         <v>45536.17083333333</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>3</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="2" t="s">
         <v>167</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -4104,7 +4102,7 @@
       <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="9">
         <v>45536.76666666667</v>
       </c>
       <c r="D63" s="1"/>
@@ -4122,7 +4120,7 @@
       <c r="B64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="9">
         <v>45536.753472222219</v>
       </c>
       <c r="D64" s="1"/>
@@ -4130,7 +4128,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="2" t="s">
         <v>171</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4144,10 +4142,10 @@
       <c r="B65" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="9">
         <v>45535.797222222223</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>22</v>
       </c>
       <c r="E65" s="1"/>
@@ -4158,7 +4156,7 @@
       <c r="H65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="2" t="s">
         <v>175</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -4172,10 +4170,10 @@
       <c r="B66" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="9">
         <v>45535.765277777777</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>25</v>
       </c>
       <c r="E66" s="1"/>
@@ -4184,7 +4182,7 @@
         <v>699</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="2" t="s">
         <v>179</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -4198,21 +4196,21 @@
       <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="9">
         <v>45535.744444444441</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>80</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>2</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="6" t="s">
         <v>697</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>182</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -4226,17 +4224,17 @@
       <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="9">
         <v>45534.629166666666</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>20</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="2" t="s">
         <v>185</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -4250,23 +4248,23 @@
       <c r="B69" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="9">
         <v>45535.674305555556</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>20</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>2</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="6" t="s">
         <v>704</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="2" t="s">
         <v>189</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -4280,13 +4278,13 @@
       <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="9">
         <v>45534.583333333336</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>30</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="1"/>
@@ -4304,17 +4302,17 @@
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="9">
         <v>45534.179166666669</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>20</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>192</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -4328,14 +4326,14 @@
       <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="9">
         <v>45534.667361111111</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>40</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>2</v>
       </c>
       <c r="G72" s="1"/>
@@ -4350,13 +4348,13 @@
       <c r="B73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="9">
         <v>45534.630555555559</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>30</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>1</v>
       </c>
       <c r="F73" s="1"/>
@@ -4364,7 +4362,7 @@
         <v>712</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -4378,12 +4376,12 @@
       <c r="B74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="9">
         <v>45533.760416666664</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4392,7 +4390,7 @@
       <c r="H74" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="2" t="s">
         <v>200</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -4406,14 +4404,14 @@
       <c r="B75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="9">
         <v>45533.625</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>40</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -4422,7 +4420,7 @@
       <c r="H75" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="2" t="s">
         <v>203</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -4436,25 +4434,25 @@
       <c r="B76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="9">
         <v>45533.625</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>70</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>2</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>3</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="6" t="s">
         <v>728</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="2" t="s">
         <v>207</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -4468,7 +4466,7 @@
       <c r="B77" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="9">
         <v>45532.824999999997</v>
       </c>
       <c r="D77" s="1"/>
@@ -4488,7 +4486,7 @@
       <c r="B78" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="9">
         <v>45532.708333333336</v>
       </c>
       <c r="D78" s="1"/>
@@ -4506,7 +4504,7 @@
       <c r="B79" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="9">
         <v>45532.708333333336</v>
       </c>
       <c r="D79" s="1"/>
@@ -4524,10 +4522,10 @@
       <c r="B80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="9">
         <v>45532.708333333336</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>45</v>
       </c>
       <c r="E80" s="1"/>
@@ -4536,7 +4534,7 @@
         <v>697</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="2" t="s">
         <v>217</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -4550,7 +4548,7 @@
       <c r="B81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="9">
         <v>45532.647222222222</v>
       </c>
       <c r="D81" s="1"/>
@@ -4568,10 +4566,10 @@
       <c r="B82" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="9">
         <v>45531.722222222219</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>21</v>
       </c>
       <c r="E82" s="1"/>
@@ -4590,10 +4588,10 @@
       <c r="B83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="9">
         <v>45531.71875</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>40</v>
       </c>
       <c r="E83" s="1"/>
@@ -4602,7 +4600,7 @@
         <v>712</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="2" t="s">
         <v>224</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -4616,7 +4614,7 @@
       <c r="B84" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="9">
         <v>45531.680555555555</v>
       </c>
       <c r="D84" s="1"/>
@@ -4634,7 +4632,7 @@
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="9">
         <v>45530.974305555559</v>
       </c>
       <c r="D85" s="1"/>
@@ -4642,7 +4640,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="2" t="s">
         <v>229</v>
       </c>
       <c r="J85" s="1" t="s">
@@ -4656,10 +4654,10 @@
       <c r="B86" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="9">
         <v>45530.625</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>50</v>
       </c>
       <c r="E86" s="1"/>
@@ -4678,14 +4676,14 @@
       <c r="B87" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="9">
         <v>45530.770833333336</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>30</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>1</v>
       </c>
       <c r="G87" s="1"/>
@@ -4700,13 +4698,13 @@
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="9">
         <v>45530.77847222222</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>20</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>1</v>
       </c>
       <c r="F88" s="1"/>
@@ -4724,7 +4722,7 @@
       <c r="B89" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="9">
         <v>45530.777083333334</v>
       </c>
       <c r="D89" s="1"/>
@@ -4732,7 +4730,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="2" t="s">
         <v>234</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -4746,7 +4744,7 @@
       <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="9">
         <v>45530.9375</v>
       </c>
       <c r="D90" s="1"/>
@@ -4764,19 +4762,19 @@
       <c r="B91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="9">
         <v>45530.84652777778</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>1</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="2" t="s">
         <v>238</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -4790,23 +4788,23 @@
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="9">
         <v>45530.792361111111</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>70</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>1</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>712</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="2" t="s">
         <v>241</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -4820,7 +4818,7 @@
       <c r="B93" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="9">
         <v>45530.711111111108</v>
       </c>
       <c r="D93" s="1"/>
@@ -4838,7 +4836,7 @@
       <c r="B94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="9">
         <v>45530.53125</v>
       </c>
       <c r="D94" s="1"/>
@@ -4856,7 +4854,7 @@
       <c r="B95" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="9">
         <v>45530.518750000003</v>
       </c>
       <c r="D95" s="1"/>
@@ -4874,7 +4872,7 @@
       <c r="B96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="9">
         <v>45530.507638888892</v>
       </c>
       <c r="D96" s="1"/>
@@ -4892,10 +4890,10 @@
       <c r="B97" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="9">
         <v>45529.988888888889</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>70</v>
       </c>
       <c r="E97" s="1"/>
@@ -4906,7 +4904,7 @@
       <c r="H97" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I97" s="2" t="s">
         <v>250</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -4920,10 +4918,10 @@
       <c r="B98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="9">
         <v>45529.824999999997</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>50</v>
       </c>
       <c r="E98" s="1"/>
@@ -4932,7 +4930,7 @@
         <v>254</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="3" t="s">
+      <c r="I98" s="2" t="s">
         <v>255</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -4946,13 +4944,13 @@
       <c r="B99" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="9">
         <v>45529.583333333336</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>18</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>2</v>
       </c>
       <c r="F99" s="1"/>
@@ -4960,7 +4958,7 @@
         <v>258</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="3" t="s">
+      <c r="I99" s="2" t="s">
         <v>259</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -4974,23 +4972,23 @@
       <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="9">
         <v>45529.666666666664</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>80</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>2</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>705</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="3" t="s">
+      <c r="I100" s="2" t="s">
         <v>262</v>
       </c>
       <c r="J100" s="1" t="s">
@@ -5004,7 +5002,7 @@
       <c r="B101" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="9">
         <v>45529.682638888888</v>
       </c>
       <c r="D101" s="1"/>
@@ -5022,10 +5020,10 @@
       <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="9">
         <v>45529.666666666664</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>40</v>
       </c>
       <c r="E102" s="1"/>
@@ -5034,7 +5032,7 @@
         <v>191</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J102" s="1" t="s">
@@ -5048,11 +5046,11 @@
       <c r="B103" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="9">
         <v>45529.53125</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>1</v>
       </c>
       <c r="F103" s="1"/>
@@ -5060,7 +5058,7 @@
         <v>269</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="2" t="s">
         <v>270</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -5074,13 +5072,13 @@
       <c r="B104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="9">
         <v>45529.55972222222</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>18</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>2</v>
       </c>
       <c r="F104" s="1"/>
@@ -5096,10 +5094,10 @@
       <c r="B105" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="9">
         <v>45528.175000000003</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>10</v>
       </c>
       <c r="E105" s="1"/>
@@ -5118,10 +5116,10 @@
       <c r="B106" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="9">
         <v>45528.09097222222</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>27</v>
       </c>
       <c r="E106" s="1"/>
@@ -5140,7 +5138,7 @@
       <c r="B107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="9">
         <v>45528.912499999999</v>
       </c>
       <c r="D107" s="1"/>
@@ -5158,10 +5156,10 @@
       <c r="B108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="9">
         <v>45528.899305555555</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>32</v>
       </c>
       <c r="E108" s="1"/>
@@ -5170,7 +5168,7 @@
         <v>164</v>
       </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="2" t="s">
         <v>276</v>
       </c>
       <c r="J108" s="1" t="s">
@@ -5184,7 +5182,7 @@
       <c r="B109" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="9">
         <v>45528.763888888891</v>
       </c>
       <c r="D109" s="1"/>
@@ -5204,10 +5202,10 @@
       <c r="B110" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="9">
         <v>45528.671527777777</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>23</v>
       </c>
       <c r="E110" s="1"/>
@@ -5216,7 +5214,7 @@
         <v>705</v>
       </c>
       <c r="H110" s="1"/>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="2" t="s">
         <v>281</v>
       </c>
       <c r="J110" s="1" t="s">
@@ -5230,21 +5228,21 @@
       <c r="B111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="9">
         <v>45528.69027777778</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>35</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="4">
+      <c r="F111" s="3">
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>718</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="2" t="s">
         <v>284</v>
       </c>
       <c r="J111" s="1" t="s">
@@ -5258,23 +5256,23 @@
       <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="9">
         <v>45528.724999999999</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>350</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>3</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="3">
         <v>9</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="6" t="s">
         <v>729</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="3" t="s">
+      <c r="I112" s="2" t="s">
         <v>286</v>
       </c>
       <c r="J112" s="1" t="s">
@@ -5288,7 +5286,7 @@
       <c r="B113" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="9">
         <v>45528.7</v>
       </c>
       <c r="D113" s="1"/>
@@ -5296,7 +5294,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -5310,7 +5308,7 @@
       <c r="B114" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="9">
         <v>45528.550694444442</v>
       </c>
       <c r="D114" s="1"/>
@@ -5330,13 +5328,13 @@
       <c r="B115" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="9">
         <v>45528.62222222222</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>70</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>1</v>
       </c>
       <c r="F115" s="1"/>
@@ -5346,7 +5344,7 @@
       <c r="H115" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I115" s="2" t="s">
         <v>293</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -5360,23 +5358,23 @@
       <c r="B116" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="9">
         <v>45528.605555555558</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>80</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>1</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="3">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>718</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="3" t="s">
+      <c r="I116" s="2" t="s">
         <v>296</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -5390,13 +5388,13 @@
       <c r="B117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="9">
         <v>45528.590277777781</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>80</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>2</v>
       </c>
       <c r="F117" s="1"/>
@@ -5404,7 +5402,7 @@
         <v>697</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="3" t="s">
+      <c r="I117" s="2" t="s">
         <v>299</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -5418,19 +5416,19 @@
       <c r="B118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="9">
         <v>45527.686805555553</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>40</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="4">
+      <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="2" t="s">
         <v>302</v>
       </c>
       <c r="J118" s="1" t="s">
@@ -5444,7 +5442,7 @@
       <c r="B119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="9">
         <v>45527.50277777778</v>
       </c>
       <c r="D119" s="1"/>
@@ -5462,15 +5460,15 @@
       <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="9">
         <v>45526.89166666667</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>50</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="6" t="s">
         <v>359</v>
       </c>
       <c r="H120" s="1"/>
@@ -5484,13 +5482,13 @@
       <c r="B121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="9">
         <v>45526.770138888889</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="6" t="s">
         <v>377</v>
       </c>
       <c r="H121" s="1"/>
@@ -5504,13 +5502,13 @@
       <c r="B122" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="9">
         <v>45526.765277777777</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H122" s="1"/>
@@ -5524,10 +5522,10 @@
       <c r="B123" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="9">
         <v>45526.071527777778</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>18</v>
       </c>
       <c r="E123" s="1"/>
@@ -5546,11 +5544,11 @@
       <c r="B124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="9">
         <v>45526.522222222222</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>1</v>
       </c>
       <c r="F124" s="1"/>
@@ -5568,10 +5566,10 @@
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="9">
         <v>45526.047222222223</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>70</v>
       </c>
       <c r="E125" s="1"/>
@@ -5590,10 +5588,10 @@
       <c r="B126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="9">
         <v>45525.791666666664</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>250</v>
       </c>
       <c r="E126" s="1"/>
@@ -5612,7 +5610,7 @@
       <c r="B127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="9">
         <v>45525.679861111108</v>
       </c>
       <c r="D127" s="1"/>
@@ -5630,14 +5628,14 @@
       <c r="B128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="9">
         <v>45525.661111111112</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>1</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="1"/>
@@ -5654,13 +5652,13 @@
       <c r="B129" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="9">
         <v>45525.597916666666</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>100</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>2</v>
       </c>
       <c r="F129" s="1"/>
@@ -5680,10 +5678,10 @@
       <c r="B130" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="9">
         <v>45525.590277777781</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>60</v>
       </c>
       <c r="E130" s="1"/>
@@ -5704,7 +5702,7 @@
       <c r="B131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="9">
         <v>45525.587500000001</v>
       </c>
       <c r="D131" s="1"/>
@@ -5722,14 +5720,14 @@
       <c r="B132" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="9">
         <v>45525.529166666667</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>70</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="4">
+      <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="1"/>
@@ -5744,7 +5742,7 @@
       <c r="B133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="9">
         <v>45525.49722222222</v>
       </c>
       <c r="D133" s="1"/>
@@ -5762,13 +5760,13 @@
       <c r="B134" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="9">
         <v>45524.457638888889</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="6" t="s">
         <v>697</v>
       </c>
       <c r="H134" s="1"/>
@@ -5782,10 +5780,10 @@
       <c r="B135" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="9">
         <v>45524.378472222219</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>18</v>
       </c>
       <c r="E135" s="1"/>
@@ -5804,16 +5802,16 @@
       <c r="B136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="9">
         <v>45524.726388888892</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>40</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <v>2</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="1"/>
@@ -5828,10 +5826,10 @@
       <c r="B137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="9">
         <v>45523.795138888891</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>40</v>
       </c>
       <c r="E137" s="1"/>
@@ -5850,10 +5848,10 @@
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="9">
         <v>45524.170138888891</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>110</v>
       </c>
       <c r="E138" s="1"/>
@@ -5872,13 +5870,13 @@
       <c r="B139" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="9">
         <v>45523.779861111114</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>18</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>1</v>
       </c>
       <c r="F139" s="1"/>
@@ -5896,7 +5894,7 @@
       <c r="B140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="9">
         <v>45523.677777777775</v>
       </c>
       <c r="D140" s="1"/>
@@ -5914,7 +5912,7 @@
       <c r="B141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="9">
         <v>45523.609722222223</v>
       </c>
       <c r="D141" s="1"/>
@@ -5932,7 +5930,7 @@
       <c r="B142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="9">
         <v>45523.589583333334</v>
       </c>
       <c r="D142" s="1"/>
@@ -5950,16 +5948,16 @@
       <c r="B143" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="9">
         <v>45523.520833333336</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>60</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <v>2</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="3">
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -5976,10 +5974,10 @@
       <c r="B144" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="9">
         <v>45523.479166666664</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>40</v>
       </c>
       <c r="E144" s="1"/>
@@ -5996,7 +5994,7 @@
       <c r="B145" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="9">
         <v>45522.981944444444</v>
       </c>
       <c r="D145" s="1"/>
@@ -6014,7 +6012,7 @@
       <c r="B146" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="9">
         <v>45522.939583333333</v>
       </c>
       <c r="D146" s="1"/>
@@ -6032,16 +6030,16 @@
       <c r="B147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="9">
         <v>45522.905555555553</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>220</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <v>2</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="3">
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -6058,10 +6056,10 @@
       <c r="B148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="9">
         <v>45522.63958333333</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>600</v>
       </c>
       <c r="E148" s="1"/>
@@ -6084,7 +6082,7 @@
       <c r="B149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="9">
         <v>45521.795138888891</v>
       </c>
       <c r="D149" s="1"/>
@@ -6102,13 +6100,13 @@
       <c r="B150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="9">
         <v>45520.756249999999</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="8" t="s">
+      <c r="G150" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H150" s="1"/>
@@ -6122,19 +6120,19 @@
       <c r="B151" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="9">
         <v>45518.572222222225</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="4">
+      <c r="F151" s="3">
         <v>1</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="6" t="s">
         <v>672</v>
       </c>
       <c r="H151" s="1"/>
-      <c r="I151" s="3" t="s">
+      <c r="I151" s="2" t="s">
         <v>340</v>
       </c>
       <c r="J151" s="1"/>
@@ -6146,7 +6144,7 @@
       <c r="B152" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="9">
         <v>45517.591666666667</v>
       </c>
       <c r="D152" s="1"/>
@@ -6154,7 +6152,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="3" t="s">
+      <c r="I152" s="2" t="s">
         <v>341</v>
       </c>
       <c r="J152" s="1" t="s">
@@ -6164,7 +6162,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="2">
+      <c r="C153" s="9">
         <v>45517.591666666667</v>
       </c>
       <c r="D153" s="1"/>
@@ -6182,13 +6180,13 @@
       <c r="B154" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="9">
         <v>45516.711805555555</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="8" t="s">
+      <c r="G154" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H154" s="1"/>
@@ -6202,21 +6200,21 @@
       <c r="B155" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="9">
         <v>45516.709027777775</v>
       </c>
       <c r="D155" s="1"/>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <v>2</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="3">
         <v>6</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="I155" s="2" t="s">
         <v>345</v>
       </c>
       <c r="J155" s="1" t="s">
@@ -6230,25 +6228,25 @@
       <c r="B156" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="9">
         <v>45515.729166666664</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>170</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <v>2</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="3">
         <v>3</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G156" s="6" t="s">
         <v>726</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="I156" s="2" t="s">
         <v>349</v>
       </c>
       <c r="J156" s="1" t="s">
@@ -6262,7 +6260,7 @@
       <c r="B157" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="9">
         <v>45515.620833333334</v>
       </c>
       <c r="D157" s="1"/>
@@ -6280,7 +6278,7 @@
       <c r="B158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="9">
         <v>45515.599305555559</v>
       </c>
       <c r="D158" s="1"/>
@@ -6298,15 +6296,15 @@
       <c r="B159" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="9">
         <v>45515.597222222219</v>
       </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <v>2</v>
       </c>
       <c r="F159" s="1"/>
-      <c r="G159" s="8" t="s">
+      <c r="G159" s="6" t="s">
         <v>438</v>
       </c>
       <c r="H159" s="1"/>
@@ -6320,7 +6318,7 @@
       <c r="B160" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="9">
         <v>45514.693055555559</v>
       </c>
       <c r="D160" s="1"/>
@@ -6338,7 +6336,7 @@
       <c r="B161" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="9">
         <v>45514.68472222222</v>
       </c>
       <c r="D161" s="1"/>
@@ -6356,7 +6354,7 @@
       <c r="B162" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="9">
         <v>45513.638194444444</v>
       </c>
       <c r="D162" s="1"/>
@@ -6374,17 +6372,17 @@
       <c r="B163" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="9">
         <v>45512.7</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>18</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="4">
+      <c r="F163" s="3">
         <v>1</v>
       </c>
-      <c r="G163" s="8" t="s">
+      <c r="G163" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H163" s="1"/>
@@ -6398,7 +6396,7 @@
       <c r="B164" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="9">
         <v>45512.856249999997</v>
       </c>
       <c r="D164" s="1"/>
@@ -6418,7 +6416,7 @@
       <c r="B165" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="9">
         <v>45512.666666666664</v>
       </c>
       <c r="D165" s="1"/>
@@ -6436,10 +6434,10 @@
       <c r="B166" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="9">
         <v>45511.789583333331</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>10</v>
       </c>
       <c r="E166" s="1"/>
@@ -6456,7 +6454,7 @@
       <c r="B167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="9">
         <v>45511.704861111109</v>
       </c>
       <c r="D167" s="1"/>
@@ -6474,16 +6472,16 @@
       <c r="B168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="9">
         <v>45511.661805555559</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>40</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <v>1</v>
       </c>
-      <c r="F168" s="4">
+      <c r="F168" s="3">
         <v>4</v>
       </c>
       <c r="G168" s="1"/>
@@ -6498,23 +6496,23 @@
       <c r="B169" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="9">
         <v>45512.75</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>80</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <v>2</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>705</v>
       </c>
       <c r="H169" s="1"/>
-      <c r="I169" s="3" t="s">
+      <c r="I169" s="2" t="s">
         <v>366</v>
       </c>
       <c r="J169" s="1" t="s">
@@ -6528,10 +6526,10 @@
       <c r="B170" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="9">
         <v>45512.989583333336</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>20</v>
       </c>
       <c r="E170" s="1"/>
@@ -6550,10 +6548,10 @@
       <c r="B171" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="9">
         <v>45511.779861111114</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>20</v>
       </c>
       <c r="E171" s="1"/>
@@ -6570,10 +6568,10 @@
       <c r="B172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="9">
         <v>45511.583333333336</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>18</v>
       </c>
       <c r="E172" s="1"/>
@@ -6590,25 +6588,25 @@
       <c r="B173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="9">
         <v>45511.561111111114</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>100</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <v>1</v>
       </c>
-      <c r="F173" s="4">
+      <c r="F173" s="3">
         <v>2</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="6" t="s">
         <v>730</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="I173" s="2" t="s">
         <v>371</v>
       </c>
       <c r="J173" s="1"/>
@@ -6620,7 +6618,7 @@
       <c r="B174" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="9">
         <v>45510.710416666669</v>
       </c>
       <c r="D174" s="1"/>
@@ -6640,11 +6638,11 @@
       <c r="B175" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="9">
         <v>45510.519444444442</v>
       </c>
       <c r="D175" s="1"/>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <v>2</v>
       </c>
       <c r="F175" s="1"/>
@@ -6662,10 +6660,10 @@
       <c r="B176" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="9">
         <v>45510.597916666666</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>30</v>
       </c>
       <c r="E176" s="1"/>
@@ -6684,21 +6682,21 @@
       <c r="B177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="9">
         <v>45509.70416666667</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>220</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="4">
+      <c r="F177" s="3">
         <v>7</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>722</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177" s="3" t="s">
+      <c r="I177" s="2" t="s">
         <v>375</v>
       </c>
       <c r="J177" s="1" t="s">
@@ -6712,13 +6710,13 @@
       <c r="B178" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="9">
         <v>45508.568055555559</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>50</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="F178" s="1"/>
@@ -6736,15 +6734,15 @@
       <c r="B179" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="9">
         <v>45508.522916666669</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>40</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="10" t="s">
+      <c r="G179" s="8" t="s">
         <v>191</v>
       </c>
       <c r="H179" s="1"/>
@@ -6758,10 +6756,10 @@
       <c r="B180" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="9">
         <v>45508.563888888886</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>10</v>
       </c>
       <c r="E180" s="1"/>
@@ -6780,7 +6778,7 @@
       <c r="B181" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="9">
         <v>45508.875</v>
       </c>
       <c r="D181" s="1"/>
@@ -6798,13 +6796,13 @@
       <c r="B182" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="9">
         <v>45508.789583333331</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>87</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <v>3</v>
       </c>
       <c r="F182" s="1"/>
@@ -6812,7 +6810,7 @@
         <v>135</v>
       </c>
       <c r="H182" s="1"/>
-      <c r="I182" s="3" t="s">
+      <c r="I182" s="2" t="s">
         <v>382</v>
       </c>
       <c r="J182" s="1" t="s">
@@ -6826,10 +6824,10 @@
       <c r="B183" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="9">
         <v>45508.775694444441</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>200</v>
       </c>
       <c r="E183" s="1"/>
@@ -6840,7 +6838,7 @@
       <c r="H183" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="I183" s="2" t="s">
         <v>385</v>
       </c>
       <c r="J183" s="1" t="s">
@@ -6854,11 +6852,11 @@
       <c r="B184" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="9">
         <v>45508.645833333336</v>
       </c>
       <c r="D184" s="1"/>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <v>1</v>
       </c>
       <c r="F184" s="1"/>
@@ -6874,7 +6872,7 @@
       <c r="B185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="9">
         <v>45508.612500000003</v>
       </c>
       <c r="D185" s="1"/>
@@ -6892,21 +6890,21 @@
       <c r="B186" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="9">
         <v>45508.583333333336</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>120</v>
       </c>
       <c r="E186" s="1"/>
-      <c r="F186" s="4">
+      <c r="F186" s="3">
         <v>1</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>273</v>
       </c>
       <c r="H186" s="1"/>
-      <c r="I186" s="3" t="s">
+      <c r="I186" s="2" t="s">
         <v>388</v>
       </c>
       <c r="J186" s="1" t="s">
@@ -6920,7 +6918,7 @@
       <c r="B187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="9">
         <v>45508.041666666664</v>
       </c>
       <c r="D187" s="1"/>
@@ -6928,7 +6926,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="3" t="s">
+      <c r="I187" s="2" t="s">
         <v>390</v>
       </c>
       <c r="J187" s="1" t="s">
@@ -6942,15 +6940,15 @@
       <c r="B188" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="9">
         <v>45507.645833333336</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>34</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="10" t="s">
+      <c r="G188" s="8" t="s">
         <v>373</v>
       </c>
       <c r="H188" s="1"/>
@@ -6964,7 +6962,7 @@
       <c r="B189" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="9">
         <v>45507.666666666664</v>
       </c>
       <c r="D189" s="1"/>
@@ -6982,7 +6980,7 @@
       <c r="B190" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="9">
         <v>45507.666666666664</v>
       </c>
       <c r="D190" s="1"/>
@@ -7002,7 +7000,7 @@
       <c r="B191" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="9">
         <v>45507.666666666664</v>
       </c>
       <c r="D191" s="1"/>
@@ -7020,17 +7018,17 @@
       <c r="B192" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="9">
         <v>45507.689583333333</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="7" t="s">
+      <c r="H192" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="I192" s="2" t="s">
         <v>397</v>
       </c>
       <c r="J192" s="1" t="s">
@@ -7044,10 +7042,10 @@
       <c r="B193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="9">
         <v>45506.819444444445</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>2</v>
       </c>
       <c r="E193" s="1"/>
@@ -7064,7 +7062,7 @@
       <c r="B194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="9">
         <v>45506.741666666669</v>
       </c>
       <c r="D194" s="1"/>
@@ -7082,7 +7080,7 @@
       <c r="B195" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="9">
         <v>45506.719444444447</v>
       </c>
       <c r="D195" s="1"/>
@@ -7100,10 +7098,10 @@
       <c r="B196" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="9">
         <v>45506.715277777781</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>20</v>
       </c>
       <c r="E196" s="1"/>
@@ -7122,15 +7120,15 @@
       <c r="B197" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="9">
         <v>45506.652777777781</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>60</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="8" t="s">
+      <c r="G197" s="6" t="s">
         <v>705</v>
       </c>
       <c r="H197" s="1"/>
@@ -7144,14 +7142,14 @@
       <c r="B198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="9">
         <v>45506.649305555555</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="3">
         <v>270</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="4">
+      <c r="F198" s="3">
         <v>8</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -7170,10 +7168,10 @@
       <c r="B199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="9">
         <v>45504.633333333331</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="3">
         <v>50</v>
       </c>
       <c r="E199" s="1"/>
@@ -7192,15 +7190,15 @@
       <c r="B200" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="9">
         <v>45506.004861111112</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="3">
         <v>40</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="8" t="s">
+      <c r="G200" s="6" t="s">
         <v>724</v>
       </c>
       <c r="H200" s="1"/>
@@ -7214,7 +7212,7 @@
       <c r="B201" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="9">
         <v>45506.338888888888</v>
       </c>
       <c r="D201" s="1"/>
@@ -7232,7 +7230,7 @@
       <c r="B202" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="9">
         <v>45505.796527777777</v>
       </c>
       <c r="D202" s="1"/>
@@ -7252,16 +7250,16 @@
       <c r="B203" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="9">
         <v>45505.6875</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="3">
         <v>24</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="3">
         <v>1</v>
       </c>
-      <c r="F203" s="4">
+      <c r="F203" s="3">
         <v>2</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -7278,7 +7276,7 @@
       <c r="B204" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="9">
         <v>45505.04583333333</v>
       </c>
       <c r="D204" s="1"/>
@@ -7286,7 +7284,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
-      <c r="I204" s="3" t="s">
+      <c r="I204" s="2" t="s">
         <v>409</v>
       </c>
       <c r="J204" s="1" t="s">
@@ -7300,7 +7298,7 @@
       <c r="B205" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="9">
         <v>45504.728472222225</v>
       </c>
       <c r="D205" s="1"/>
@@ -7318,10 +7316,10 @@
       <c r="B206" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="9">
         <v>45504.520833333336</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>20</v>
       </c>
       <c r="E206" s="1"/>
@@ -7342,10 +7340,10 @@
       <c r="B207" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="9">
         <v>45503.708333333336</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>10</v>
       </c>
       <c r="E207" s="1"/>
@@ -7364,7 +7362,7 @@
       <c r="B208" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="9">
         <v>45502.681944444441</v>
       </c>
       <c r="D208" s="1"/>
@@ -7384,10 +7382,10 @@
       <c r="B209" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="9">
         <v>45502.716666666667</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="3">
         <v>25</v>
       </c>
       <c r="E209" s="1"/>
@@ -7406,10 +7404,10 @@
       <c r="B210" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="9">
         <v>45502.708333333336</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="3">
         <v>20</v>
       </c>
       <c r="E210" s="1"/>
@@ -7428,10 +7426,10 @@
       <c r="B211" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="9">
         <v>45502.666666666664</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="3">
         <v>15</v>
       </c>
       <c r="E211" s="1"/>
@@ -7448,7 +7446,7 @@
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="9">
         <v>45502.629166666666</v>
       </c>
       <c r="D212" s="1"/>
@@ -7466,13 +7464,13 @@
       <c r="B213" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="9">
         <v>45502.621527777781</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="3">
         <v>60</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="3">
         <v>3</v>
       </c>
       <c r="F213" s="1"/>
@@ -7492,21 +7490,21 @@
       <c r="B214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="9">
         <v>45502.645833333336</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="3">
         <v>330</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="4">
+      <c r="F214" s="3">
         <v>7</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>425</v>
       </c>
       <c r="H214" s="1"/>
-      <c r="I214" s="3" t="s">
+      <c r="I214" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J214" s="1" t="s">
@@ -7520,10 +7518,10 @@
       <c r="B215" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="9">
         <v>45501.166666666664</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="3">
         <v>60</v>
       </c>
       <c r="E215" s="1"/>
@@ -7542,15 +7540,15 @@
       <c r="B216" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="9">
         <v>45501.737500000003</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="3">
         <v>18</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="8" t="s">
+      <c r="G216" s="6" t="s">
         <v>191</v>
       </c>
       <c r="H216" s="1"/>
@@ -7564,10 +7562,10 @@
       <c r="B217" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="9">
         <v>45501.875</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="3">
         <v>18</v>
       </c>
       <c r="E217" s="1"/>
@@ -7576,7 +7574,7 @@
         <v>430</v>
       </c>
       <c r="H217" s="1"/>
-      <c r="I217" s="3" t="s">
+      <c r="I217" s="2" t="s">
         <v>431</v>
       </c>
       <c r="J217" s="1" t="s">
@@ -7590,7 +7588,7 @@
       <c r="B218" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="9">
         <v>45501.579861111109</v>
       </c>
       <c r="D218" s="1"/>
@@ -7610,10 +7608,10 @@
       <c r="B219" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="9">
         <v>45499.507638888892</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="3">
         <v>26</v>
       </c>
       <c r="E219" s="1"/>
@@ -7632,10 +7630,10 @@
       <c r="B220" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="9">
         <v>45499.67291666667</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="3">
         <v>8</v>
       </c>
       <c r="E220" s="1"/>
@@ -7654,17 +7652,17 @@
       <c r="B221" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="9">
         <v>45500.62777777778</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="3">
         <v>18</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
-      <c r="I221" s="3" t="s">
+      <c r="I221" s="2" t="s">
         <v>440</v>
       </c>
       <c r="J221" s="1" t="s">
@@ -7678,13 +7676,13 @@
       <c r="B222" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="9">
         <v>45500.5625</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="3">
         <v>50</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="3">
         <v>1</v>
       </c>
       <c r="F222" s="1"/>
@@ -7702,17 +7700,17 @@
       <c r="B223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="9">
         <v>45500.659722222219</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="3">
         <v>20</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
-      <c r="I223" s="3" t="s">
+      <c r="I223" s="2" t="s">
         <v>445</v>
       </c>
       <c r="J223" s="1" t="s">
@@ -7726,10 +7724,10 @@
       <c r="B224" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="9">
         <v>45500.636111111111</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="3">
         <v>18</v>
       </c>
       <c r="E224" s="1"/>
@@ -7746,10 +7744,10 @@
       <c r="B225" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="9">
         <v>45500.636111111111</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="3">
         <v>18</v>
       </c>
       <c r="E225" s="1"/>
@@ -7766,10 +7764,10 @@
       <c r="B226" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="9">
         <v>45499.697916666664</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="3">
         <v>40</v>
       </c>
       <c r="E226" s="1"/>
@@ -7778,7 +7776,7 @@
         <v>135</v>
       </c>
       <c r="H226" s="1"/>
-      <c r="I226" s="3" t="s">
+      <c r="I226" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J226" s="1" t="s">
@@ -7792,17 +7790,17 @@
       <c r="B227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="9">
         <v>45499.577777777777</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="3">
         <v>20</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
-      <c r="I227" s="3" t="s">
+      <c r="I227" s="2" t="s">
         <v>449</v>
       </c>
       <c r="J227" s="1" t="s">
@@ -7816,7 +7814,7 @@
       <c r="B228" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="9">
         <v>45498.875694444447</v>
       </c>
       <c r="D228" s="1"/>
@@ -7834,7 +7832,7 @@
       <c r="B229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="9">
         <v>45498.754861111112</v>
       </c>
       <c r="D229" s="1"/>
@@ -7844,7 +7842,7 @@
       <c r="H229" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="I229" s="2" t="s">
         <v>453</v>
       </c>
       <c r="J229" s="1" t="s">
@@ -7858,7 +7856,7 @@
       <c r="B230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="9">
         <v>45498.686805555553</v>
       </c>
       <c r="D230" s="1"/>
@@ -7876,23 +7874,23 @@
       <c r="B231" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="9">
         <v>45498.681250000001</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="3">
         <v>150</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="3">
         <v>3</v>
       </c>
-      <c r="F231" s="4">
+      <c r="F231" s="3">
         <v>5</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>417</v>
       </c>
       <c r="H231" s="1"/>
-      <c r="I231" s="3" t="s">
+      <c r="I231" s="2" t="s">
         <v>456</v>
       </c>
       <c r="J231" s="1" t="s">
@@ -7906,7 +7904,7 @@
       <c r="B232" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="9">
         <v>45498.665972222225</v>
       </c>
       <c r="D232" s="1"/>
@@ -7924,13 +7922,13 @@
       <c r="B233" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="9">
         <v>45497.791666666664</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="3">
         <v>24</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="3">
         <v>1</v>
       </c>
       <c r="F233" s="1"/>
@@ -7946,7 +7944,7 @@
       <c r="B234" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="9">
         <v>45498.019444444442</v>
       </c>
       <c r="D234" s="1"/>
@@ -7954,7 +7952,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
-      <c r="I234" s="3" t="s">
+      <c r="I234" s="2" t="s">
         <v>459</v>
       </c>
       <c r="J234" s="1" t="s">
@@ -7968,17 +7966,17 @@
       <c r="B235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="9">
         <v>45497.875</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="3">
         <v>15</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
-      <c r="I235" s="3" t="s">
+      <c r="I235" s="2" t="s">
         <v>461</v>
       </c>
       <c r="J235" s="1" t="s">
@@ -7992,21 +7990,21 @@
       <c r="B236" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="9">
         <v>45497.772222222222</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="3">
         <v>50</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="3">
         <v>1</v>
       </c>
-      <c r="F236" s="4">
+      <c r="F236" s="3">
         <v>1</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
-      <c r="I236" s="3" t="s">
+      <c r="I236" s="2" t="s">
         <v>464</v>
       </c>
       <c r="J236" s="1" t="s">
@@ -8020,10 +8018,10 @@
       <c r="B237" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="9">
         <v>45496.583333333336</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="3">
         <v>20</v>
       </c>
       <c r="E237" s="1"/>
@@ -8042,10 +8040,10 @@
       <c r="B238" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="9">
         <v>45495.927083333336</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="3">
         <v>23</v>
       </c>
       <c r="E238" s="1"/>
@@ -8054,7 +8052,7 @@
         <v>164</v>
       </c>
       <c r="H238" s="1"/>
-      <c r="I238" s="3" t="s">
+      <c r="I238" s="2" t="s">
         <v>468</v>
       </c>
       <c r="J238" s="1" t="s">
@@ -8068,7 +8066,7 @@
       <c r="B239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="9">
         <v>45496.887499999997</v>
       </c>
       <c r="D239" s="1"/>
@@ -8076,7 +8074,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
-      <c r="I239" s="3" t="s">
+      <c r="I239" s="2" t="s">
         <v>470</v>
       </c>
       <c r="J239" s="1" t="s">
@@ -8090,7 +8088,7 @@
       <c r="B240" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="9">
         <v>45496.865277777775</v>
       </c>
       <c r="D240" s="1"/>
@@ -8108,10 +8106,10 @@
       <c r="B241" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="9">
         <v>45495.59375</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="3">
         <v>14</v>
       </c>
       <c r="E241" s="1"/>
@@ -8130,7 +8128,7 @@
       <c r="B242" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="9">
         <v>45496.603472222225</v>
       </c>
       <c r="D242" s="1"/>
@@ -8148,17 +8146,17 @@
       <c r="B243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="9">
         <v>45496.642361111109</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="4">
+      <c r="F243" s="3">
         <v>5</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
-      <c r="I243" s="3" t="s">
+      <c r="I243" s="2" t="s">
         <v>476</v>
       </c>
       <c r="J243" s="1" t="s">
@@ -8172,19 +8170,19 @@
       <c r="B244" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="9">
         <v>45495.722916666666</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="3">
         <v>15</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
-      <c r="I244" s="3" t="s">
+      <c r="I244" s="2" t="s">
         <v>479</v>
       </c>
       <c r="J244" s="1" t="s">
@@ -8198,19 +8196,19 @@
       <c r="B245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="9">
         <v>45496.591666666667</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="3">
         <v>25</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="4">
+      <c r="F245" s="3">
         <v>1</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
-      <c r="I245" s="3" t="s">
+      <c r="I245" s="2" t="s">
         <v>481</v>
       </c>
       <c r="J245" s="1" t="s">
@@ -8224,23 +8222,23 @@
       <c r="B246" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="9">
         <v>45496.666666666664</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="3">
         <v>100</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246" s="3">
         <v>1</v>
       </c>
-      <c r="F246" s="4">
+      <c r="F246" s="3">
         <v>1</v>
       </c>
-      <c r="G246" s="8" t="s">
+      <c r="G246" s="6" t="s">
         <v>407</v>
       </c>
       <c r="H246" s="1"/>
-      <c r="I246" s="3" t="s">
+      <c r="I246" s="2" t="s">
         <v>483</v>
       </c>
       <c r="J246" s="1" t="s">
@@ -8254,13 +8252,13 @@
       <c r="B247" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="9">
         <v>45495.625</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="3">
         <v>100</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="3">
         <v>3</v>
       </c>
       <c r="F247" s="1"/>
@@ -8270,7 +8268,7 @@
       <c r="H247" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="I247" s="2" t="s">
         <v>487</v>
       </c>
       <c r="J247" s="1" t="s">
@@ -8284,25 +8282,25 @@
       <c r="B248" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="9">
         <v>45495.604166666664</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="3">
         <v>30</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="3">
         <v>2</v>
       </c>
-      <c r="F248" s="4">
+      <c r="F248" s="3">
         <v>3</v>
       </c>
-      <c r="G248" s="8" t="s">
+      <c r="G248" s="6" t="s">
         <v>731</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="I248" s="2" t="s">
         <v>491</v>
       </c>
       <c r="J248" s="1" t="s">
@@ -8316,17 +8314,17 @@
       <c r="B249" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="9">
         <v>45495.576388888891</v>
       </c>
       <c r="D249" s="1"/>
-      <c r="E249" s="4">
+      <c r="E249" s="3">
         <v>2</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
-      <c r="I249" s="3" t="s">
+      <c r="I249" s="2" t="s">
         <v>493</v>
       </c>
       <c r="J249" s="1" t="s">
@@ -8340,7 +8338,7 @@
       <c r="B250" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="9">
         <v>45493.779166666667</v>
       </c>
       <c r="D250" s="1"/>
@@ -8358,13 +8356,13 @@
       <c r="B251" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="9">
         <v>45493.453472222223</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="3">
         <v>18</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="3">
         <v>1</v>
       </c>
       <c r="F251" s="1"/>
@@ -8382,10 +8380,10 @@
       <c r="B252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="9">
         <v>45492.792361111111</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="3">
         <v>18</v>
       </c>
       <c r="E252" s="1"/>
@@ -8404,10 +8402,10 @@
       <c r="B253" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="9">
         <v>45493.677083333336</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="3">
         <v>18</v>
       </c>
       <c r="E253" s="1"/>
@@ -8426,7 +8424,7 @@
       <c r="B254" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="9">
         <v>45493.629861111112</v>
       </c>
       <c r="D254" s="1"/>
@@ -8436,7 +8434,7 @@
         <v>135</v>
       </c>
       <c r="H254" s="1"/>
-      <c r="I254" s="3" t="s">
+      <c r="I254" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J254" s="1" t="s">
@@ -8450,7 +8448,7 @@
       <c r="B255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="9">
         <v>45492.772916666669</v>
       </c>
       <c r="D255" s="1"/>
@@ -8470,10 +8468,10 @@
       <c r="B256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="9">
         <v>45492.597916666666</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="3">
         <v>6</v>
       </c>
       <c r="E256" s="1"/>
@@ -8490,19 +8488,19 @@
       <c r="B257" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="9">
         <v>45492.625</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="3">
         <v>61</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="3">
         <v>2</v>
       </c>
-      <c r="F257" s="4">
+      <c r="F257" s="3">
         <v>1</v>
       </c>
-      <c r="G257" s="8" t="s">
+      <c r="G257" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H257" s="1"/>
@@ -8516,10 +8514,10 @@
       <c r="B258" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="9">
         <v>45491.84652777778</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="3">
         <v>40</v>
       </c>
       <c r="E258" s="1"/>
@@ -8530,7 +8528,7 @@
       <c r="H258" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="I258" s="2" t="s">
         <v>511</v>
       </c>
       <c r="J258" s="1" t="s">
@@ -8544,7 +8542,7 @@
       <c r="B259" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="9">
         <v>45491.68472222222</v>
       </c>
       <c r="D259" s="1"/>
@@ -8562,17 +8560,17 @@
       <c r="B260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="9">
         <v>45491.76666666667</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="3">
         <v>6</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
-      <c r="I260" s="3" t="s">
+      <c r="I260" s="2" t="s">
         <v>515</v>
       </c>
       <c r="J260" s="1" t="s">
@@ -8586,7 +8584,7 @@
       <c r="B261" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="9">
         <v>45489.593055555553</v>
       </c>
       <c r="D261" s="1"/>
@@ -8594,7 +8592,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
-      <c r="I261" s="3" t="s">
+      <c r="I261" s="2" t="s">
         <v>517</v>
       </c>
       <c r="J261" s="1" t="s">
@@ -8608,7 +8606,7 @@
       <c r="B262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="9">
         <v>45491.716666666667</v>
       </c>
       <c r="D262" s="1"/>
@@ -8618,7 +8616,7 @@
         <v>520</v>
       </c>
       <c r="H262" s="1"/>
-      <c r="I262" s="3" t="s">
+      <c r="I262" s="2" t="s">
         <v>521</v>
       </c>
       <c r="J262" s="1" t="s">
@@ -8632,7 +8630,7 @@
       <c r="B263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="9">
         <v>45491.506944444445</v>
       </c>
       <c r="D263" s="1"/>
@@ -8652,13 +8650,13 @@
       <c r="B264" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="9">
         <v>45491.586805555555</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="4">
+      <c r="G264" s="3">
         <v>3</v>
       </c>
       <c r="H264" s="1"/>
@@ -8672,10 +8670,10 @@
       <c r="B265" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="9">
         <v>45491.62777777778</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="3">
         <v>12</v>
       </c>
       <c r="E265" s="1"/>
@@ -8692,10 +8690,10 @@
       <c r="B266" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="9">
         <v>45491.543055555558</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="3">
         <v>40</v>
       </c>
       <c r="E266" s="1"/>
@@ -8716,10 +8714,10 @@
       <c r="B267" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="9">
         <v>45491.666666666664</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="3">
         <v>46</v>
       </c>
       <c r="E267" s="1"/>
@@ -8738,16 +8736,16 @@
       <c r="B268" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="9">
         <v>45491.743750000001</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="3">
         <v>62</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="3">
         <v>2</v>
       </c>
-      <c r="F268" s="4">
+      <c r="F268" s="3">
         <v>1</v>
       </c>
       <c r="G268" s="1" t="s">
@@ -8764,17 +8762,17 @@
       <c r="B269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="9">
         <v>45491.70208333333</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="3">
         <v>40</v>
       </c>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
-      <c r="I269" s="3" t="s">
+      <c r="I269" s="2" t="s">
         <v>531</v>
       </c>
       <c r="J269" s="1" t="s">
@@ -8788,23 +8786,23 @@
       <c r="B270" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="9">
         <v>45491.675694444442</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="3">
         <v>91</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="3">
         <v>3</v>
       </c>
-      <c r="F270" s="4">
+      <c r="F270" s="3">
         <v>1</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>254</v>
       </c>
       <c r="H270" s="1"/>
-      <c r="I270" s="3" t="s">
+      <c r="I270" s="2" t="s">
         <v>534</v>
       </c>
       <c r="J270" s="1" t="s">
@@ -8818,7 +8816,7 @@
       <c r="B271" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="9">
         <v>45490.64166666667</v>
       </c>
       <c r="D271" s="1"/>
@@ -8838,17 +8836,17 @@
       <c r="B272" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="9">
         <v>45489.643750000003</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="3">
         <v>18</v>
       </c>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
-      <c r="I272" s="3" t="s">
+      <c r="I272" s="2" t="s">
         <v>537</v>
       </c>
       <c r="J272" s="1" t="s">
@@ -8862,16 +8860,16 @@
       <c r="B273" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="9">
         <v>45489.795138888891</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="3">
         <v>80</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="3">
         <v>2</v>
       </c>
-      <c r="F273" s="4">
+      <c r="F273" s="3">
         <v>2</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -8880,7 +8878,7 @@
       <c r="H273" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="I273" s="2" t="s">
         <v>541</v>
       </c>
       <c r="J273" s="1" t="s">
@@ -8894,13 +8892,13 @@
       <c r="B274" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="9">
         <v>45489.595138888886</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="3">
         <v>50</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="3">
         <v>1</v>
       </c>
       <c r="F274" s="1"/>
@@ -8910,7 +8908,7 @@
       <c r="H274" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I274" s="2" t="s">
         <v>544</v>
       </c>
       <c r="J274" s="1" t="s">
@@ -8924,13 +8922,13 @@
       <c r="B275" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="9">
         <v>45488.020833333336</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="3">
         <v>31</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="3">
         <v>2</v>
       </c>
       <c r="F275" s="1"/>
@@ -8948,10 +8946,10 @@
       <c r="B276" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="9">
         <v>45488.595833333333</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="3">
         <v>17</v>
       </c>
       <c r="E276" s="1"/>
@@ -8970,10 +8968,10 @@
       <c r="B277" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="9">
         <v>45487.017361111109</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="3">
         <v>26</v>
       </c>
       <c r="E277" s="1"/>
@@ -8990,7 +8988,7 @@
       <c r="B278" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="9">
         <v>45487.125</v>
       </c>
       <c r="D278" s="1"/>
@@ -8998,7 +8996,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
-      <c r="I278" s="3" t="s">
+      <c r="I278" s="2" t="s">
         <v>548</v>
       </c>
       <c r="J278" s="1" t="s">
@@ -9012,7 +9010,7 @@
       <c r="B279" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="9">
         <v>45485.791666666664</v>
       </c>
       <c r="D279" s="1"/>
@@ -9032,7 +9030,7 @@
       <c r="B280" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280" s="9">
         <v>45486.479166666664</v>
       </c>
       <c r="D280" s="1"/>
@@ -9042,7 +9040,7 @@
         <v>552</v>
       </c>
       <c r="H280" s="1"/>
-      <c r="I280" s="3" t="s">
+      <c r="I280" s="2" t="s">
         <v>553</v>
       </c>
       <c r="J280" s="1" t="s">
@@ -9056,21 +9054,21 @@
       <c r="B281" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="9">
         <v>45485.875</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="3">
         <v>55</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="8" t="s">
+      <c r="G281" s="6" t="s">
         <v>704</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="I281" s="2" t="s">
         <v>557</v>
       </c>
       <c r="J281" s="1" t="s">
@@ -9084,11 +9082,11 @@
       <c r="B282" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="9">
         <v>45485.645833333336</v>
       </c>
       <c r="D282" s="1"/>
-      <c r="E282" s="4">
+      <c r="E282" s="3">
         <v>1</v>
       </c>
       <c r="F282" s="1"/>
@@ -9104,10 +9102,10 @@
       <c r="B283" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="9">
         <v>45484.729166666664</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="3">
         <v>27</v>
       </c>
       <c r="E283" s="1"/>
@@ -9126,10 +9124,10 @@
       <c r="B284" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284" s="9">
         <v>45484.680555555555</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="3">
         <v>40</v>
       </c>
       <c r="E284" s="1"/>
@@ -9148,13 +9146,13 @@
       <c r="B285" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285" s="9">
         <v>45484.645138888889</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="3">
         <v>40</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="3">
         <v>1</v>
       </c>
       <c r="F285" s="1"/>
@@ -9172,14 +9170,14 @@
       <c r="B286" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="9">
         <v>45484.465277777781</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="3">
         <v>20</v>
       </c>
       <c r="E286" s="1"/>
-      <c r="F286" s="4">
+      <c r="F286" s="3">
         <v>1</v>
       </c>
       <c r="G286" s="1" t="s">
@@ -9198,7 +9196,7 @@
       <c r="B287" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="9">
         <v>45483.921527777777</v>
       </c>
       <c r="D287" s="1"/>
@@ -9208,7 +9206,7 @@
       <c r="H287" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="I287" s="2" t="s">
         <v>569</v>
       </c>
       <c r="J287" s="1" t="s">
@@ -9222,15 +9220,15 @@
       <c r="B288" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="9">
         <v>45483.604166666664</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="3">
         <v>19</v>
       </c>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="4">
+      <c r="G288" s="3">
         <v>2</v>
       </c>
       <c r="H288" s="1"/>
@@ -9244,19 +9242,19 @@
       <c r="B289" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289" s="9">
         <v>45482.625</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="3">
         <v>20</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="3">
         <v>2</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
-      <c r="I289" s="3" t="s">
+      <c r="I289" s="2" t="s">
         <v>572</v>
       </c>
       <c r="J289" s="1" t="s">
@@ -9270,7 +9268,7 @@
       <c r="B290" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290" s="9">
         <v>45482.67291666667</v>
       </c>
       <c r="D290" s="1"/>
@@ -9290,7 +9288,7 @@
       <c r="B291" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291" s="9">
         <v>45482.630555555559</v>
       </c>
       <c r="D291" s="1"/>
@@ -9310,10 +9308,10 @@
       <c r="B292" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292" s="9">
         <v>45482.572916666664</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="3">
         <v>18</v>
       </c>
       <c r="E292" s="1"/>
@@ -9330,10 +9328,10 @@
       <c r="B293" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293" s="9">
         <v>45482.604166666664</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="3">
         <v>20</v>
       </c>
       <c r="E293" s="1"/>
@@ -9352,10 +9350,10 @@
       <c r="B294" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294" s="9">
         <v>45481.8125</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="3">
         <v>15</v>
       </c>
       <c r="E294" s="1"/>
@@ -9374,19 +9372,19 @@
       <c r="B295" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295" s="9">
         <v>45481.880555555559</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="3">
         <v>40</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="3">
         <v>2</v>
       </c>
-      <c r="F295" s="4">
+      <c r="F295" s="3">
         <v>1</v>
       </c>
-      <c r="G295" s="4">
+      <c r="G295" s="3">
         <v>1</v>
       </c>
       <c r="H295" s="1"/>
@@ -9400,10 +9398,10 @@
       <c r="B296" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296" s="9">
         <v>45481.541666666664</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="3">
         <v>16</v>
       </c>
       <c r="E296" s="1"/>
@@ -9422,7 +9420,7 @@
       <c r="B297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="9">
         <v>45481.75</v>
       </c>
       <c r="D297" s="1"/>
@@ -9442,21 +9440,21 @@
       <c r="B298" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="9">
         <v>45481.649305555555</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="3">
         <v>60</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="3">
         <v>2</v>
       </c>
       <c r="F298" s="1"/>
-      <c r="G298" s="4">
+      <c r="G298" s="3">
         <v>7</v>
       </c>
       <c r="H298" s="1"/>
-      <c r="I298" s="3" t="s">
+      <c r="I298" s="2" t="s">
         <v>582</v>
       </c>
       <c r="J298" s="1" t="s">
@@ -9470,17 +9468,17 @@
       <c r="B299" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="9">
         <v>45481.9375</v>
       </c>
       <c r="D299" s="1"/>
-      <c r="E299" s="4">
+      <c r="E299" s="3">
         <v>1</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
-      <c r="I299" s="3" t="s">
+      <c r="I299" s="2" t="s">
         <v>584</v>
       </c>
       <c r="J299" s="1" t="s">
@@ -9494,17 +9492,17 @@
       <c r="B300" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300" s="9">
         <v>45480.75</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
-      <c r="F300" s="4">
+      <c r="F300" s="3">
         <v>4</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-      <c r="I300" s="3" t="s">
+      <c r="I300" s="2" t="s">
         <v>587</v>
       </c>
       <c r="J300" s="1" t="s">
@@ -9518,10 +9516,10 @@
       <c r="B301" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="9">
         <v>45480.583333333336</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="3">
         <v>27</v>
       </c>
       <c r="E301" s="1"/>
@@ -9540,16 +9538,16 @@
       <c r="B302" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302" s="9">
         <v>45480.680555555555</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="3">
         <v>75</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="3">
         <v>3</v>
       </c>
-      <c r="F302" s="4">
+      <c r="F302" s="3">
         <v>4</v>
       </c>
       <c r="G302" s="1" t="s">
@@ -9558,7 +9556,7 @@
       <c r="H302" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="I302" s="2" t="s">
         <v>592</v>
       </c>
       <c r="J302" s="1" t="s">
@@ -9572,13 +9570,13 @@
       <c r="B303" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="9">
         <v>45478.75</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="3">
         <v>80</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303" s="3">
         <v>2</v>
       </c>
       <c r="F303" s="1"/>
@@ -9596,7 +9594,7 @@
       <c r="B304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304" s="9">
         <v>45478.489583333336</v>
       </c>
       <c r="D304" s="1"/>
@@ -9614,7 +9612,7 @@
       <c r="B305" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="9">
         <v>45477.703472222223</v>
       </c>
       <c r="D305" s="1"/>
@@ -9632,7 +9630,7 @@
       <c r="B306" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="9">
         <v>45477.839583333334</v>
       </c>
       <c r="D306" s="1"/>
@@ -9650,10 +9648,10 @@
       <c r="B307" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307" s="9">
         <v>45476.652777777781</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="3">
         <v>22</v>
       </c>
       <c r="E307" s="1"/>
@@ -9670,7 +9668,7 @@
       <c r="B308" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308" s="9">
         <v>45476.951388888891</v>
       </c>
       <c r="D308" s="1"/>
@@ -9680,7 +9678,7 @@
         <v>713</v>
       </c>
       <c r="H308" s="1"/>
-      <c r="I308" s="3" t="s">
+      <c r="I308" s="2" t="s">
         <v>597</v>
       </c>
       <c r="J308" s="1" t="s">
@@ -9694,10 +9692,10 @@
       <c r="B309" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309" s="9">
         <v>45475.645833333336</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="3">
         <v>12</v>
       </c>
       <c r="E309" s="1"/>
@@ -9716,7 +9714,7 @@
       <c r="B310" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310" s="9">
         <v>45475.916666666664</v>
       </c>
       <c r="D310" s="1"/>
@@ -9726,7 +9724,7 @@
         <v>497</v>
       </c>
       <c r="H310" s="1"/>
-      <c r="I310" s="3" t="s">
+      <c r="I310" s="2" t="s">
         <v>601</v>
       </c>
       <c r="J310" s="1" t="s">
@@ -9740,7 +9738,7 @@
       <c r="B311" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311" s="9">
         <v>45474.9375</v>
       </c>
       <c r="D311" s="1"/>
@@ -9760,13 +9758,13 @@
       <c r="B312" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312" s="9">
         <v>45476.729166666664</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="3">
         <v>122</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312" s="3">
         <v>1</v>
       </c>
       <c r="F312" s="1"/>
@@ -9776,7 +9774,7 @@
       <c r="H312" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="I312" s="2" t="s">
         <v>605</v>
       </c>
       <c r="J312" s="1" t="s">
@@ -9790,10 +9788,10 @@
       <c r="B313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313" s="9">
         <v>45476.729166666664</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="3">
         <v>30</v>
       </c>
       <c r="E313" s="1"/>
@@ -9802,7 +9800,7 @@
         <v>607</v>
       </c>
       <c r="H313" s="1"/>
-      <c r="I313" s="3" t="s">
+      <c r="I313" s="2" t="s">
         <v>608</v>
       </c>
       <c r="J313" s="1" t="s">
@@ -9816,16 +9814,16 @@
       <c r="B314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314" s="9">
         <v>45476.729166666664</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="3">
         <v>50</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="3">
         <v>1</v>
       </c>
-      <c r="F314" s="4">
+      <c r="F314" s="3">
         <v>4</v>
       </c>
       <c r="G314" s="1" t="s">
@@ -9834,7 +9832,7 @@
       <c r="H314" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="I314" s="2" t="s">
         <v>612</v>
       </c>
       <c r="J314" s="1" t="s">
@@ -9848,7 +9846,7 @@
       <c r="B315" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315" s="9">
         <v>45475.75</v>
       </c>
       <c r="D315" s="1"/>
@@ -9856,7 +9854,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
-      <c r="I315" s="3" t="s">
+      <c r="I315" s="2" t="s">
         <v>615</v>
       </c>
       <c r="J315" s="1" t="s">
@@ -9870,16 +9868,16 @@
       <c r="B316" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316" s="9">
         <v>45475.59375</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="3">
         <v>124</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316" s="3">
         <v>2</v>
       </c>
-      <c r="F316" s="4">
+      <c r="F316" s="3">
         <v>3</v>
       </c>
       <c r="G316" s="1" t="s">
@@ -9888,7 +9886,7 @@
       <c r="H316" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I316" s="2" t="s">
         <v>619</v>
       </c>
       <c r="J316" s="1" t="s">
@@ -9902,7 +9900,7 @@
       <c r="B317" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317" s="9">
         <v>45474.791666666664</v>
       </c>
       <c r="D317" s="1"/>
@@ -9910,7 +9908,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="2" t="s">
         <v>621</v>
       </c>
       <c r="J317" s="1" t="s">
@@ -9924,7 +9922,7 @@
       <c r="B318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318" s="9">
         <v>45473.850694444445</v>
       </c>
       <c r="D318" s="1"/>
@@ -9934,7 +9932,7 @@
       <c r="H318" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I318" s="2" t="s">
         <v>624</v>
       </c>
       <c r="J318" s="1" t="s">
@@ -9948,21 +9946,21 @@
       <c r="B319" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="9">
         <v>45473.571527777778</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="3">
         <v>28</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="3">
         <v>1</v>
       </c>
       <c r="F319" s="1"/>
-      <c r="G319" s="8" t="s">
+      <c r="G319" s="6" t="s">
         <v>273</v>
       </c>
       <c r="H319" s="1"/>
-      <c r="I319" s="3" t="s">
+      <c r="I319" s="2" t="s">
         <v>625</v>
       </c>
       <c r="J319" s="1" t="s">
@@ -9976,10 +9974,10 @@
       <c r="B320" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320" s="9">
         <v>45471.666666666664</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="3">
         <v>80</v>
       </c>
       <c r="E320" s="1"/>
@@ -9998,13 +9996,13 @@
       <c r="B321" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321" s="9">
         <v>45472.718055555553</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="3">
         <v>52</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="3">
         <v>2</v>
       </c>
       <c r="F321" s="1"/>
@@ -10024,17 +10022,17 @@
       <c r="B322" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322" s="9">
         <v>45472.650694444441</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="3">
         <v>23</v>
       </c>
       <c r="E322" s="1"/>
-      <c r="F322" s="4">
+      <c r="F322" s="3">
         <v>1</v>
       </c>
-      <c r="G322" s="8" t="s">
+      <c r="G322" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H322" s="1" t="s">
@@ -10050,7 +10048,7 @@
       <c r="B323" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="9">
         <v>45468.75</v>
       </c>
       <c r="D323" s="1"/>
@@ -10070,7 +10068,7 @@
       <c r="B324" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324" s="9">
         <v>45471.604166666664</v>
       </c>
       <c r="D324" s="1"/>
@@ -10078,7 +10076,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-      <c r="I324" s="3" t="s">
+      <c r="I324" s="2" t="s">
         <v>634</v>
       </c>
       <c r="J324" s="1" t="s">
@@ -10092,7 +10090,7 @@
       <c r="B325" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325" s="9">
         <v>45471.629861111112</v>
       </c>
       <c r="D325" s="1"/>
@@ -10112,10 +10110,10 @@
       <c r="B326" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="9">
         <v>45470.833333333336</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="3">
         <v>15</v>
       </c>
       <c r="E326" s="1"/>
@@ -10124,7 +10122,7 @@
         <v>637</v>
       </c>
       <c r="H326" s="1"/>
-      <c r="I326" s="3" t="s">
+      <c r="I326" s="2" t="s">
         <v>638</v>
       </c>
       <c r="J326" s="1" t="s">
@@ -10138,10 +10136,10 @@
       <c r="B327" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327" s="9">
         <v>45468.479166666664</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="3">
         <v>20</v>
       </c>
       <c r="E327" s="1"/>
@@ -10158,10 +10156,10 @@
       <c r="B328" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328" s="9">
         <v>45469.625</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="3">
         <v>14</v>
       </c>
       <c r="E328" s="1"/>
@@ -10180,10 +10178,10 @@
       <c r="B329" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329" s="9">
         <v>45468.444444444445</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="3">
         <v>20</v>
       </c>
       <c r="E329" s="1"/>
@@ -10202,10 +10200,10 @@
       <c r="B330" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330" s="9">
         <v>45467.739583333336</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="3">
         <v>20</v>
       </c>
       <c r="E330" s="1"/>
@@ -10214,7 +10212,7 @@
         <v>359</v>
       </c>
       <c r="H330" s="1"/>
-      <c r="I330" s="3" t="s">
+      <c r="I330" s="2" t="s">
         <v>644</v>
       </c>
       <c r="J330" s="1" t="s">
@@ -10228,10 +10226,10 @@
       <c r="B331" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="9">
         <v>45466.770833333336</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="3">
         <v>18</v>
       </c>
       <c r="E331" s="1"/>
@@ -10250,17 +10248,17 @@
       <c r="B332" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="9">
         <v>45466.824999999997</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="8" t="s">
+      <c r="G332" s="6" t="s">
         <v>698</v>
       </c>
       <c r="H332" s="1"/>
-      <c r="I332" s="3" t="s">
+      <c r="I332" s="2" t="s">
         <v>648</v>
       </c>
       <c r="J332" s="1" t="s">
@@ -10274,10 +10272,10 @@
       <c r="B333" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="9">
         <v>45466.916666666664</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="3">
         <v>33</v>
       </c>
       <c r="E333" s="1"/>
@@ -10288,7 +10286,7 @@
       <c r="H333" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="I333" s="2" t="s">
         <v>651</v>
       </c>
       <c r="J333" s="1" t="s">
@@ -10302,23 +10300,23 @@
       <c r="B334" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334" s="9">
         <v>45466.625</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="3">
         <v>40</v>
       </c>
-      <c r="E334" s="4">
+      <c r="E334" s="3">
         <v>1</v>
       </c>
       <c r="F334" s="1"/>
-      <c r="G334" s="8" t="s">
+      <c r="G334" s="6" t="s">
         <v>497</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I334" s="2" t="s">
         <v>655</v>
       </c>
       <c r="J334" s="1" t="s">
@@ -10332,10 +10330,10 @@
       <c r="B335" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335" s="9">
         <v>45461.711805555555</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="3">
         <v>35</v>
       </c>
       <c r="E335" s="1"/>
@@ -10344,7 +10342,7 @@
         <v>712</v>
       </c>
       <c r="H335" s="1"/>
-      <c r="I335" s="3" t="s">
+      <c r="I335" s="2" t="s">
         <v>658</v>
       </c>
       <c r="J335" s="1" t="s">
@@ -10355,13 +10353,13 @@
       <c r="A336" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C336" s="5">
+      <c r="C336" s="9">
         <v>45457</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G336" s="8" t="s">
+      <c r="G336" s="6" t="s">
         <v>732</v>
       </c>
       <c r="H336" s="1"/>
@@ -10370,7 +10368,7 @@
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="5">
+      <c r="C337" s="9">
         <v>45455</v>
       </c>
       <c r="D337" s="1"/>
@@ -10381,7 +10379,7 @@
       <c r="A338" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C338" s="5">
+      <c r="C338" s="9">
         <v>45454</v>
       </c>
       <c r="D338" s="1">
@@ -10398,7 +10396,7 @@
       <c r="A339" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C339" s="5">
+      <c r="C339" s="9">
         <v>45446</v>
       </c>
       <c r="D339" s="1">
@@ -10411,7 +10409,7 @@
       <c r="A340" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C340" s="5">
+      <c r="C340" s="9">
         <v>45406</v>
       </c>
       <c r="D340" s="1">
@@ -10428,7 +10426,7 @@
       <c r="A341" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C341" s="5">
+      <c r="C341" s="9">
         <v>45406</v>
       </c>
       <c r="D341" s="1">
@@ -10443,13 +10441,13 @@
       <c r="A342" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C342" s="5">
+      <c r="C342" s="9">
         <v>45406</v>
       </c>
       <c r="D342" s="1">
         <v>22</v>
       </c>
-      <c r="G342" s="8" t="s">
+      <c r="G342" s="6" t="s">
         <v>135</v>
       </c>
       <c r="H342" s="1"/>
@@ -10458,7 +10456,7 @@
       <c r="A343" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C343" s="5">
+      <c r="C343" s="9">
         <v>45404</v>
       </c>
       <c r="D343" s="1">
@@ -10471,7 +10469,7 @@
       <c r="A344" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C344" s="5">
+      <c r="C344" s="9">
         <v>45404</v>
       </c>
       <c r="D344" s="1"/>
@@ -10482,7 +10480,7 @@
       <c r="A345" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C345" s="5">
+      <c r="C345" s="9">
         <v>45402</v>
       </c>
       <c r="D345" s="1"/>
@@ -10495,7 +10493,7 @@
       <c r="A346" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C346" s="5">
+      <c r="C346" s="9">
         <v>45402</v>
       </c>
       <c r="D346" s="1">
@@ -10510,7 +10508,7 @@
       <c r="A347" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C347" s="5">
+      <c r="C347" s="9">
         <v>45402</v>
       </c>
       <c r="D347" s="1">
@@ -10525,7 +10523,7 @@
       <c r="A348" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C348" s="9">
         <v>45398</v>
       </c>
       <c r="D348" s="1"/>
@@ -10536,13 +10534,13 @@
       <c r="A349" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C349" s="5">
+      <c r="C349" s="9">
         <v>45390</v>
       </c>
       <c r="D349" s="1">
         <v>25</v>
       </c>
-      <c r="G349" s="8" t="s">
+      <c r="G349" s="6" t="s">
         <v>497</v>
       </c>
       <c r="H349" s="1"/>
@@ -10551,7 +10549,7 @@
       <c r="A350" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C350" s="5">
+      <c r="C350" s="9">
         <v>45389</v>
       </c>
       <c r="D350" s="1">
@@ -10566,7 +10564,7 @@
       <c r="A351" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C351" s="5">
+      <c r="C351" s="9">
         <v>45388</v>
       </c>
       <c r="D351" s="1">
@@ -10581,7 +10579,7 @@
       <c r="A352" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C352" s="5">
+      <c r="C352" s="9">
         <v>45388</v>
       </c>
       <c r="D352" s="1">
@@ -10596,7 +10594,7 @@
       <c r="A353" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C353" s="5">
+      <c r="C353" s="9">
         <v>45388</v>
       </c>
       <c r="D353" s="1">
@@ -10613,7 +10611,7 @@
       <c r="A354" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C354" s="5">
+      <c r="C354" s="9">
         <v>45388</v>
       </c>
       <c r="D354" s="1">
@@ -10628,7 +10626,7 @@
       <c r="A355" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C355" s="5">
+      <c r="C355" s="9">
         <v>45387</v>
       </c>
       <c r="D355" s="1">
@@ -10645,13 +10643,13 @@
       <c r="A356" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C356" s="5">
+      <c r="C356" s="9">
         <v>45374</v>
       </c>
       <c r="D356" s="1">
         <v>80</v>
       </c>
-      <c r="G356" s="8" t="s">
+      <c r="G356" s="6" t="s">
         <v>733</v>
       </c>
       <c r="H356" s="1" t="s">
@@ -10662,7 +10660,7 @@
       <c r="A357" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C357" s="5">
+      <c r="C357" s="9">
         <v>45371</v>
       </c>
       <c r="D357" s="1"/>
@@ -10673,7 +10671,7 @@
       <c r="A358" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C358" s="5">
+      <c r="C358" s="9">
         <v>45364</v>
       </c>
       <c r="D358" s="1">
@@ -10688,7 +10686,7 @@
       <c r="A359" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C359" s="5">
+      <c r="C359" s="9">
         <v>45330</v>
       </c>
       <c r="D359" s="1"/>
@@ -10699,7 +10697,7 @@
       <c r="A360" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C360" s="5">
+      <c r="C360" s="9">
         <v>45330</v>
       </c>
       <c r="D360" s="1"/>
@@ -10710,7 +10708,7 @@
       <c r="A361" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C361" s="5">
+      <c r="C361" s="9">
         <v>45329</v>
       </c>
       <c r="D361" s="1"/>
@@ -10721,16 +10719,16 @@
       <c r="A362" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C362" s="5">
+      <c r="C362" s="9">
         <v>45320</v>
       </c>
       <c r="D362" s="1">
         <v>50</v>
       </c>
-      <c r="E362" s="6">
+      <c r="E362" s="4">
         <v>1</v>
       </c>
-      <c r="G362" s="8" t="s">
+      <c r="G362" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H362" s="1"/>
@@ -10739,7 +10737,7 @@
       <c r="A363" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C363" s="5">
+      <c r="C363" s="9">
         <v>45319</v>
       </c>
       <c r="D363" s="1">
@@ -10754,13 +10752,13 @@
       <c r="A364" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C364" s="5">
+      <c r="C364" s="9">
         <v>45299</v>
       </c>
       <c r="D364" s="1">
         <v>75</v>
       </c>
-      <c r="G364" s="8" t="s">
+      <c r="G364" s="6" t="s">
         <v>497</v>
       </c>
       <c r="H364" s="1"/>
@@ -10769,7 +10767,7 @@
       <c r="A365" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C365" s="5">
+      <c r="C365" s="9">
         <v>45294</v>
       </c>
       <c r="D365" s="1">

--- a/archives base de données PSFDF(1).xlsx
+++ b/archives base de données PSFDF(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C4E2E-2841-4359-A3CD-BEF2CB1CD7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D6265-7AED-474F-9AC4-C4CC78BF7CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:N365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J305" sqref="J305"/>
+      <selection activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
